--- a/pred_ohlcv/54_21/2019-10-31 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 POWR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-174251.2093000002</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10036791.0628</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>10036791.0628</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>10022483.9632</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>10035952.4795</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10023410.0564</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10015742.4677</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>10016979.7042</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>10016979.7042</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>10015878.6429</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10015174.6211</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>10053188.9892</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>10052570.9902</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>10062362.579</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>10061262.579</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>10057402.579</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10150693.1013</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>10149876.4834</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>10128679.1204</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10128679.1204</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>10040178.0669</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10033476.8524</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>10033476.8524</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>10033476.8524</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>10033466.8524</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>10033466.8524</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>10165862.38723806</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>10155369.35963807</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>10255686.51583806</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>10270786.26583806</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>10249543.01003806</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>10264529.96193806</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>10254573.75493806</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>10417222.79093806</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>10403847.79093806</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>10421875.81513806</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>10415454.36313806</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>10416943.50833806</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>10392427.54893806</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>10393045.16913806</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 POWR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-174251.2093000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4745748.7907</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4745748.7907</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4745748.7907</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4745748.7907</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4745748.7907</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>12029326.5939</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10036791.0628</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>10036791.0628</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>10022483.9632</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>10035952.4795</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10023410.0564</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10015742.4677</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>10016979.7042</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>10016979.7042</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>10015878.6429</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10015174.6211</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>10053188.9892</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>10052570.9902</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>10062362.579</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>10061262.579</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>10057402.579</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10150693.1013</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>10149876.4834</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>10128679.1204</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10128679.1204</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>10040178.0669</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>10033476.8524</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>10033476.8524</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>10033476.8524</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>10033466.8524</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>10033466.8524</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>10165862.38723806</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>10155369.35963807</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>10255686.51583806</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>10270786.26583806</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>10249543.01003806</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>10264529.96193806</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>10254573.75493806</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>10417222.79093806</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>10403847.79093806</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>10421875.81513806</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>10415454.36313806</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>10416943.50833806</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>10392427.54893806</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
